--- a/biology/Botanique/Trèfle_alpin/Trèfle_alpin.xlsx
+++ b/biology/Botanique/Trèfle_alpin/Trèfle_alpin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_alpin</t>
+          <t>Trèfle_alpin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium alpinum
 Le trèfle alpin (Trifolium alpinum L.), appelé aussi trèfle des Alpes ou réglisse des montagnes, est une petite plante très basse, formant parfois d'importantes touffes. On le rencontre exclusivement en montagne au-dessus de 1 000 m d'altitude. Ses fleurs roses sont odorantes, et sa racine sucrée, à goût de réglisse, constitue une petite friandise lors de balades ou de randonnées (on peut aussi en faire des décoctions recommandées pour les maladies des bronches). Il appartient au genre Trifolium et à la famille des Fabacées (ou Légumineuses). On en connaît deux variétés :
 var. alpinum
 var. nanum Rouy 1899
-On considère que cette plante fait partie de la flore obsidionale de France[1].
+On considère que cette plante fait partie de la flore obsidionale de France.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_alpin</t>
+          <t>Trèfle_alpin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,14 +529,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat et écologie
-Plante vivace poussant en montagne de 1100 à 3 000 m, commune dans les Alpes et les Pyrénées, ainsi que dans le Massif central. On la rencontre sur sol siliceux (prés secs, pelouses, rocailles). Floraison de juin à août.
-Morphologie générale et végétative
-Plante herbacée glabre, très basse (5 à 20 cm), en touffes. Les feuilles sont presque toutes basales (tige pratiquement inexistante), avec un  pétiole à deux stipules étroites et pointues. Les trois folioles sont longues et étroites, lancéolées, parfois linéaires.
-Morphologie florale
-Fleurs hermaphrodites, groupées en têtes assez lâches. Ces têtes sont solitaires à l'extrémité d'un pédoncule assez long et portent de 3 à 12 fleurs. En général les fleurs sont roses, mais on rencontre parfois des fleurs crème ou blanches. Petit calice à dents étroites et de longueur inégale. Corolle assez grande (2 cm environ) à pétales parfumés. Pollinisation par les insectes.
-Fruit et graines
-Le fruit est une petite gousse enveloppée par les restes fanés de la corolle. Dissémination épizoochore.
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace poussant en montagne de 1100 à 3 000 m, commune dans les Alpes et les Pyrénées, ainsi que dans le Massif central. On la rencontre sur sol siliceux (prés secs, pelouses, rocailles). Floraison de juin à août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trèfle_alpin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_alpin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée glabre, très basse (5 à 20 cm), en touffes. Les feuilles sont presque toutes basales (tige pratiquement inexistante), avec un  pétiole à deux stipules étroites et pointues. Les trois folioles sont longues et étroites, lancéolées, parfois linéaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle_alpin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_alpin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites, groupées en têtes assez lâches. Ces têtes sont solitaires à l'extrémité d'un pédoncule assez long et portent de 3 à 12 fleurs. En général les fleurs sont roses, mais on rencontre parfois des fleurs crème ou blanches. Petit calice à dents étroites et de longueur inégale. Corolle assez grande (2 cm environ) à pétales parfumés. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trèfle_alpin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_alpin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite gousse enveloppée par les restes fanés de la corolle. Dissémination épizoochore.
 </t>
         </is>
       </c>
